--- a/doc/코딩이력관리소요필드_2019-11-18.xlsx
+++ b/doc/코딩이력관리소요필드_2019-11-18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,17 @@
     <sheet name="Sheet2" sheetId="9" state="hidden" r:id="rId10"/>
     <sheet name="동료평가 테이블" sheetId="6" r:id="rId11"/>
     <sheet name="코드 테이블" sheetId="7" r:id="rId12"/>
-    <sheet name="프로젝트 참여요청 테이블" sheetId="8" r:id="rId13"/>
-    <sheet name="학과 코드타입" sheetId="14" r:id="rId14"/>
-    <sheet name="단과 대학 코드타입" sheetId="15" r:id="rId15"/>
+    <sheet name="마일리지 합계 테이블" sheetId="16" r:id="rId13"/>
+    <sheet name="프로젝트 참여요청 테이블" sheetId="8" r:id="rId14"/>
+    <sheet name="학과 코드타입" sheetId="14" r:id="rId15"/>
+    <sheet name="단과 대학 코드타입" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="388">
   <si>
     <t>구분(JavaScript, Python, Java, Go, C++, Ruby, PHP, TypeScript, C#, C, Scala, Kotlin, R, Lua, Fortran, Visual Basic)</t>
   </si>
@@ -1626,6 +1627,162 @@
   </si>
   <si>
     <t>학년</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지별합계</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지 코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종수정일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ser_name</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>otal_score</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage_score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nt32</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nt32</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ast_update_date</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_of_study</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1791,7 +1948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,6 +2095,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3847,11 +4007,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -4017,6 +4177,181 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E9"/>
@@ -4141,7 +4476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4217,7 +4552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4308,53 +4643,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="F3" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="K3" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="P3" s="49" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="P3" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
@@ -5905,7 +6240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -6484,7 +6819,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -6592,7 +6927,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -6819,6 +7154,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>